--- a/Document/100_DUYD画面仕様.xlsx
+++ b/Document/100_DUYD画面仕様.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CCD3D3-7ED2-49D1-B82E-3720115D8879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FB064-E122-47F1-9C57-0B7E01FCB6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="2" r:id="rId2"/>
     <sheet name="プレイ画面仕様" sheetId="3" r:id="rId3"/>
     <sheet name="探索の書画面仕様" sheetId="4" r:id="rId4"/>
+    <sheet name="GameOver画面仕様" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
   <si>
     <t>更新日</t>
   </si>
@@ -331,16 +332,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>真上から見下ろしているアングルでプレイしてもらいます</t>
-    <rPh sb="0" eb="2">
-      <t>マウエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ミオ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>マップはランダム生成で毎回違うマップを作成してください</t>
     <rPh sb="8" eb="10">
       <t>セイセイ</t>
@@ -995,92 +986,9 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>このシートでは、探索の書の画面仕様について記載します</t>
-    <rPh sb="8" eb="10">
-      <t>タンサク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ガメンシヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>探索の書とは</t>
-    <rPh sb="0" eb="2">
-      <t>タンサク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>今まで最も深く潜ったフロア数上位３つが表示される場所です</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モグ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>また、プレイして死亡した場合もこの画面に遷移します</t>
-    <rPh sb="8" eb="10">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>画面仕様</t>
     <rPh sb="0" eb="4">
       <t>ガメンシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>遷移するシーンによって表示が変化します</t>
-    <rPh sb="0" eb="2">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1102,13 +1010,349 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>タイトルから遷移時</t>
+    <t>見出し</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>見出し</t>
+    <t>表示文字</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジモジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ハイスコア</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タイトルから遷移した際に表示されます</t>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>今まで最も深く潜った時のフロア数、倒した敵の数、壊したブロック数が表示される場所です</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モグ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>真横からのアングルでプレイしてもらいます</t>
     <rPh sb="0" eb="2">
-      <t>ミダ</t>
+      <t>マヨコ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>移動したら次々見えてきます</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツギツギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>画面より大きく生成しますが、表示するのはマップの一部分です。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>イチブブン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>上の図のようにこれまでのプレイで最も高い数値を表示してください</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>GameOver画面仕様</t>
+  </si>
+  <si>
+    <t>このシートでは、GameOver画面仕様について記載します</t>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>死亡した時点でのスコアを表示します</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>今回の記録</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>到達階層</t>
+    <rPh sb="0" eb="4">
+      <t>トウタツカイソウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>倒した敵の数</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>壊した岩の数</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>洞窟で行き倒れた人を表示してください</t>
+    <rPh sb="0" eb="2">
+      <t>ドウクツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>表示しただ画像の上に血文字で「GAMEOVER」と表示します</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>きらびやかにで「ハイスコア」と表示します</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>道端で誰かが読んでいるような絵を表示してください</t>
+    <rPh sb="0" eb="2">
+      <t>ミチバタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>血文字で「GAMEOVER」と表示します</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>探索の記録画面仕様</t>
+    <rPh sb="0" eb="2">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>このシートでは、探索の記録の画面仕様について記載します</t>
+    <rPh sb="8" eb="10">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>探索の記録とは</t>
+    <rPh sb="0" eb="2">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>探索の記録</t>
+    <rPh sb="0" eb="2">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1117,7 +1361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,6 +1482,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1283,7 +1549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1313,11 +1579,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1348,9 +1629,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1365,6 +1643,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5483,7 +5774,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>探索の書</a:t>
+            <a:t>探索の記録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6375,7 +6666,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>探索の書</a:t>
+            <a:t>探索の記録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7330,7 +7621,7 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>探索の書</a:t>
+            <a:t>探索の記録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17512,2503 +17803,271 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3825B6-A873-45C8-ABB7-90BF96D3FD48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBE3097-4639-445D-9C62-CCED4C2AF59E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1935480" y="3596640"/>
+          <a:off x="1935480" y="3002280"/>
           <a:ext cx="2682240" cy="1783080"/>
-          <a:chOff x="1958340" y="3032760"/>
-          <a:chExt cx="2682240" cy="1783080"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBE3097-4639-445D-9C62-CCED4C2AF59E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1958340" y="3032760"/>
-            <a:ext cx="2682240" cy="1783080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="四角形: 対角を切り取る 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FDCB04-E549-4B32-92C1-5C8A9D142AF2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2270760" y="3169920"/>
-            <a:ext cx="2011680" cy="281940"/>
-          </a:xfrm>
-          <a:prstGeom prst="snip2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>探索の書</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="テキスト ボックス 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C002E9B-1AA7-4919-8712-349B2D83AAE4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2148840" y="3436620"/>
-            <a:ext cx="891540" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="スクロール: 横 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6265DAF-C131-4AFB-A5F8-55D3C3BEA7F0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2400300" y="3825240"/>
-            <a:ext cx="1676400" cy="594360"/>
-          </a:xfrm>
-          <a:prstGeom prst="horizontalScroll">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>９９９階層</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>165872</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>165873</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="グループ化 26">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 対角を切り取る 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCFD192-73AC-41B6-8285-A0977200E3D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FDCB04-E549-4B32-92C1-5C8A9D142AF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1766072" y="7787640"/>
-          <a:ext cx="3017521" cy="1783080"/>
-          <a:chOff x="1766072" y="6202680"/>
-          <a:chExt cx="3017521" cy="1783080"/>
+          <a:off x="2247900" y="3139440"/>
+          <a:ext cx="2011680" cy="281940"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80B3623-C1BF-4BAE-8E7D-0BBA0901E92D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1935480" y="6202680"/>
-            <a:ext cx="2682240" cy="1783080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="テキスト ボックス 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C138571-577A-406D-A03F-1048E0C4846D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="3267212" y="6597036"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A83018D-0133-4F7A-89E4-73BAA8326FC7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="3297693" y="7191394"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="四角形: 対角を切り取る 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8145F1-DB05-43C1-BDF5-A6D9CEFDE3BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2247900" y="6339840"/>
-            <a:ext cx="2011680" cy="281940"/>
-          </a:xfrm>
-          <a:prstGeom prst="snip2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>探索の書</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="テキスト ボックス 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC96E854-F246-4722-971C-B9629BA84E0F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2049780" y="6621780"/>
-            <a:ext cx="1226820" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>今回の記録</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキスト ボックス 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24C8BF3-1FD2-4CDD-8F8C-B732BAA80881}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="2584947" y="7385665"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="テキスト ボックス 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9050286C-929C-48A0-A2DB-B97F844E19BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="1766072" y="7397135"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="スクロール: 横 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F2793A-01CC-4A09-8FBD-6915FA1B7E54}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2377440" y="6995160"/>
-            <a:ext cx="1676400" cy="594360"/>
-          </a:xfrm>
-          <a:prstGeom prst="horizontalScroll">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>９９９階層</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9505</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD872176-8C9C-48EF-9955-0FD6F04D3B5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1767840" y="10561320"/>
-          <a:ext cx="3314701" cy="1792585"/>
-          <a:chOff x="1729741" y="6202680"/>
-          <a:chExt cx="3314701" cy="1792585"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B981BCB-A5B9-41FF-B6B3-C66747343184}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1935480" y="6202680"/>
-            <a:ext cx="2682240" cy="1783080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="テキスト ボックス 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4ED54A-0A6F-4372-AD34-C39FB2492301}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="3558542" y="6459876"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="テキスト ボックス 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0702250-9302-4C72-AEC6-D5FF974F0A1C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="2865120" y="6852266"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="四角形: 対角を切り取る 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6BA8A4-11BF-4F2C-9B37-053AA2BAEC04}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2247900" y="6339840"/>
-            <a:ext cx="2011680" cy="281940"/>
-          </a:xfrm>
-          <a:prstGeom prst="snip2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>探索の書</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="テキスト ボックス 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BB3EAE-401B-402E-9CFF-FEDB58592990}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2049780" y="6621780"/>
-            <a:ext cx="1226820" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>今回の記録</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="テキスト ボックス 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB84C1F7-0E53-45C7-AAEC-89912D20E110}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="2823486" y="7591405"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="テキスト ボックス 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E19F082-3F49-4E30-872D-782537AEA7CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="1729741" y="7423763"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="スクロール: 横 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3808B4-A27A-47A4-88D9-3D9EB2F31227}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2377440" y="6995160"/>
-            <a:ext cx="1676400" cy="594360"/>
-          </a:xfrm>
-          <a:prstGeom prst="horizontalScroll">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>９９９階層</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>探索の記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="グループ化 37">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5913BACA-ABC4-406D-8E93-E9D7C0AC2040}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEFE4B5-2E03-4C7B-A30C-B071D473C7DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5311140" y="3627120"/>
+          <a:off x="5311140" y="3032760"/>
           <a:ext cx="2682240" cy="1783080"/>
-          <a:chOff x="1958340" y="3032760"/>
-          <a:chExt cx="2682240" cy="1783080"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="正方形/長方形 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEFE4B5-2E03-4C7B-A30C-B071D473C7DA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1958340" y="3032760"/>
-            <a:ext cx="2682240" cy="1783080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="四角形: 対角を切り取る 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CDD454-4B29-4503-A6D8-B4ABBFECECEC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2270760" y="3169920"/>
-            <a:ext cx="2011680" cy="281940"/>
-          </a:xfrm>
-          <a:prstGeom prst="snip2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>探索の書</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="テキスト ボックス 40">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38467D1-E809-4EC2-8A93-EAA2DBC005F7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2133600" y="3429000"/>
-            <a:ext cx="891540" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="スクロール: 横 41">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B2DCD9-2CD5-43C6-A80C-7058BDC05707}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2400300" y="3825240"/>
-            <a:ext cx="1676400" cy="594360"/>
-          </a:xfrm>
-          <a:prstGeom prst="horizontalScroll">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>９９９階層</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="グループ化 47">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: 対角を切り取る 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A65D26DF-8CA7-4223-8239-071FC3F51DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CDD454-4B29-4503-A6D8-B4ABBFECECEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5120640" y="7787640"/>
-          <a:ext cx="3017521" cy="1783080"/>
-          <a:chOff x="1766072" y="6202680"/>
-          <a:chExt cx="3017521" cy="1783080"/>
+          <a:off x="5623560" y="3169920"/>
+          <a:ext cx="2011680" cy="281940"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="正方形/長方形 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333BCE62-2A7C-476E-9674-19D3AEEE82B3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1935480" y="6202680"/>
-            <a:ext cx="2682240" cy="1783080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="テキスト ボックス 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF765F4-CB1F-467E-BD30-842E95FC47AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="3267212" y="6597036"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="テキスト ボックス 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C9E3D2-B913-4F54-A76A-97C3FC888A19}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="3297693" y="7191394"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="四角形: 対角を切り取る 51">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86317E9B-7B8F-41E0-B6A5-41C1641B4791}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2247900" y="6339840"/>
-            <a:ext cx="2011680" cy="281940"/>
-          </a:xfrm>
-          <a:prstGeom prst="snip2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>探索の書</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="テキスト ボックス 52">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43619557-6A65-4F15-B966-7DF9F5A7BFD4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2049780" y="6621780"/>
-            <a:ext cx="1226820" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>今回の記録</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="テキスト ボックス 53">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B44B9A-6E0A-4B3F-9A1E-A51837D81B94}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="2584947" y="7385665"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="テキスト ボックス 54">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE225915-741D-477A-9D53-2F0D0BD73F96}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="1766072" y="7397135"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GAME</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>OVER</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="スクロール: 横 55">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C2B5F4-3947-4FF0-8109-C940D359C3EB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2377440" y="6995160"/>
-            <a:ext cx="1676400" cy="594360"/>
-          </a:xfrm>
-          <a:prstGeom prst="horizontalScroll">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>９９９階層</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>129541</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9505</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="グループ化 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E082205C-4065-400B-A553-57448E032E34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5120640" y="10561320"/>
-          <a:ext cx="3314701" cy="1792585"/>
-          <a:chOff x="1729741" y="6202680"/>
-          <a:chExt cx="3314701" cy="1792585"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="正方形/長方形 57">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1471C7D-5148-49E9-BF61-197DB1612C9A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1935480" y="6202680"/>
-            <a:ext cx="2682240" cy="1783080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="テキスト ボックス 58">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04527371-CA10-4174-ADB6-9C8E49D06912}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="3558542" y="6459876"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="テキスト ボックス 59">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B035770-8346-4E63-8B73-CFBBFCF5E420}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="2865120" y="6852266"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="四角形: 対角を切り取る 60">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{061604FF-BFF1-49C4-AD31-A7211CD000E8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2247900" y="6339840"/>
-            <a:ext cx="2011680" cy="281940"/>
-          </a:xfrm>
-          <a:prstGeom prst="snip2DiagRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>探索の書</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="テキスト ボックス 61">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370E9D2F-D896-468A-8CA0-7A7D4CDC6E82}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2049780" y="6621780"/>
-            <a:ext cx="1226820" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>今回の記録</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="テキスト ボックス 62">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F67C983-33AA-4F56-B155-FBEC28DC24D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="2823486" y="7591405"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="テキスト ボックス 63">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63094F0-6C89-4FBF-84F8-965146E07A98}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2133225">
-            <a:off x="1729741" y="7423763"/>
-            <a:ext cx="1485900" cy="403860"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ハイスコア</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="スクロール: 横 64">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFB9DD0-E2BA-473F-9B45-ACA8025B127B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2377440" y="6995160"/>
-            <a:ext cx="1676400" cy="594360"/>
-          </a:xfrm>
-          <a:prstGeom prst="horizontalScroll">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>９９９階層</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>探索の記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>164951</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20068,16 +18127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20092,8 +18151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5623560" y="3688080"/>
-          <a:ext cx="2080260" cy="381000"/>
+          <a:off x="5562600" y="3688080"/>
+          <a:ext cx="2141220" cy="373380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20136,13 +18195,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>164951</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20155,14 +18214,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="66" idx="1"/>
           <a:endCxn id="67" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7703820" y="3878580"/>
-          <a:ext cx="766931" cy="45720"/>
+          <a:off x="7703820" y="3874770"/>
+          <a:ext cx="766931" cy="49530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20194,22 +18254,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>20171</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>2689</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B181627-3D08-4343-9BCC-276A7336B931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1418FB31-FA2E-49F6-892C-4A30B736D9CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20217,7 +18277,1681 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8473440" y="4610100"/>
+          <a:off x="8493611" y="4152900"/>
+          <a:ext cx="1221889" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2751015-BA42-47F0-9D0E-D6256C41ABD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585460" y="3512820"/>
+          <a:ext cx="2004060" cy="1280160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>20171</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FE1E64-E878-494B-8DA9-9C7C52F5FD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="69" idx="1"/>
+          <a:endCxn id="70" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7589520" y="3737610"/>
+          <a:ext cx="904091" cy="415290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE5A92E-4EA0-4393-9EFA-3DF019DFD255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2270760" y="3627120"/>
+          <a:ext cx="1844040" cy="1211580"/>
+          <a:chOff x="2270760" y="3627120"/>
+          <a:chExt cx="1844040" cy="1211580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="グループ化 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B8E644-C4DB-4B54-B098-7AA47D878E77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2270760" y="3627120"/>
+            <a:ext cx="1844040" cy="1104900"/>
+            <a:chOff x="3611881" y="5013960"/>
+            <a:chExt cx="2011679" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="図 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC46A153-ACD0-4928-9710-F67A185E8E7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3611881" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="図 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1C3124C-6A92-43C3-8EBC-414EEE24792A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4617720" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C785A3-6B63-4090-9BC9-FDB1C79BA6F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2369820" y="3970020"/>
+            <a:ext cx="777240" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>到達階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD4F9F3-24CC-47FC-924A-EFBF056098A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="3649980"/>
+            <a:ext cx="777240" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>倒した敵</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>壊した岩</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>個</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="グループ化 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBC2AF8-8EEA-4D9C-808D-83500153D717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5676900" y="3649980"/>
+          <a:ext cx="1844040" cy="1211580"/>
+          <a:chOff x="2270760" y="3627120"/>
+          <a:chExt cx="1844040" cy="1211580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="86" name="グループ化 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11239704-E8EB-4A30-884B-724DFEBD43FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2270760" y="3627120"/>
+            <a:ext cx="1844040" cy="1104900"/>
+            <a:chOff x="3611881" y="5013960"/>
+            <a:chExt cx="2011679" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="89" name="図 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F35352-9FD3-46CB-B0D9-C8DD8A21044F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3611881" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="90" name="図 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC64A1C-B78C-4150-AABF-2F12DAEDDAD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4617720" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="テキスト ボックス 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF2F783-0DD2-480A-92F2-9C1924CB48AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2400300" y="3954780"/>
+            <a:ext cx="777240" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>到達階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="テキスト ボックス 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6442B544-6FB3-46DF-A79F-7EA3A34869F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="3649980"/>
+            <a:ext cx="777240" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>倒した敵</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>壊した岩</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>個</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38467D1-E809-4EC2-8A93-EAA2DBC005F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="3627120"/>
+          <a:ext cx="891540" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C002E9B-1AA7-4919-8712-349B2D83AAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2293620" y="3611880"/>
+          <a:ext cx="891540" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6968AA74-944A-46B7-B17E-F48835D35668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="3032760"/>
+          <a:ext cx="2682240" cy="1927860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 対角を切り取る 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01193868-18F3-4028-8218-417488786304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="1950720"/>
+          <a:ext cx="2011680" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146547</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>192385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123687</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA76498-9109-45E0-AFB3-50E684399D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2133225">
+          <a:off x="2584947" y="4215745"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DABE0D-838B-4228-813E-F3B217298881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973579" y="5608320"/>
+          <a:ext cx="2682240" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 対角を切り取る 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2FA72A-ECDD-4E1D-925B-F33A42BAAFBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2285999" y="8717280"/>
+          <a:ext cx="2011680" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87905</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>65045</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5718A7BA-9172-49B4-972F-E5E760CD1DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2133225">
+          <a:off x="2861585" y="6997045"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1768</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1768</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5180DE-BC33-43E3-BEDC-C3BF62F50AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5290048" y="3032760"/>
+          <a:ext cx="2682240" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>146548</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>146548</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 対角を切り取る 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E7B516-0ED5-4E8D-BA19-F2748159023F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602468" y="1981200"/>
+          <a:ext cx="2011680" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>148315</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>192385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>125455</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF972F1-4D53-49C5-97E7-88E309C466D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2133225">
+          <a:off x="5939515" y="4215745"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996C6B1F-3CD5-4341-836D-CA8736EF6BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5326379" y="5608320"/>
+          <a:ext cx="2682240" cy="1927860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15239</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="四角形: 対角を切り取る 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D339C5A6-0A9D-4ACB-A08C-A13D5AE6AF82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638799" y="5745480"/>
+          <a:ext cx="2011680" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>87905</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>65045</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFCE98A-14B3-4ABA-AED3-13DD0A019DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2133225">
+          <a:off x="6214385" y="6997045"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103991</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C4D9E6-0336-43A4-AA0D-74908BD469CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8409791" y="8488680"/>
           <a:ext cx="673249" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20252,7 +19986,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>記録</a:t>
+            <a:t>見出し</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20261,23 +19995,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>2689</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>71269</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="正方形/長方形 77">
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DFD1E6-8C56-48CB-94BC-D57A991EFDD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCB8E5E-A7FE-41E9-9609-FBB4C7ADCE85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20285,8 +20019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5626249" y="4564380"/>
-          <a:ext cx="2080260" cy="381000"/>
+          <a:off x="5501640" y="8442960"/>
+          <a:ext cx="2141220" cy="373380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20328,34 +20062,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>71269</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>103991</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2FB482-1448-4515-9F88-A481A8B15523}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA75E5DD-2862-4358-BC67-F9F7F92EEC66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="77" idx="1"/>
-          <a:endCxn id="78" idx="3"/>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="55" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7706509" y="4754880"/>
-          <a:ext cx="766931" cy="45720"/>
+          <a:off x="7642860" y="8629650"/>
+          <a:ext cx="766931" cy="49530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20382,6 +20116,2447 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>126851</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA674C1-2DAD-46EE-89CC-15D82F88341A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8432651" y="8907780"/>
+          <a:ext cx="1221889" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リザルト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322CF523-50BE-4F8E-B5BE-F0195527EC38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="3512820"/>
+          <a:ext cx="2004060" cy="1363980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>126851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F047E75-B6B5-4D40-AA5F-B92195F38F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7528560" y="3737610"/>
+          <a:ext cx="904091" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="60" name="グループ化 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFA416B-6DB1-4B11-808C-FEEAD5F4EE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5600700" y="2552700"/>
+          <a:ext cx="1844040" cy="1211580"/>
+          <a:chOff x="2270760" y="3627120"/>
+          <a:chExt cx="1844040" cy="1211580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="61" name="グループ化 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9609D7-A2A1-4276-988F-7DBCCC196665}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2270760" y="3627120"/>
+            <a:ext cx="1844040" cy="1104900"/>
+            <a:chOff x="3611881" y="5013960"/>
+            <a:chExt cx="2011679" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="64" name="図 63">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77B3CA1-8E05-47D4-8B23-FF3E5C456B5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3611881" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="65" name="図 64">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92CF67E2-0D6C-4AC5-A796-BA98BF91D5C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4617720" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="テキスト ボックス 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C688B886-5E57-41B8-93BB-EA71B337E604}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2385060" y="3863340"/>
+            <a:ext cx="777240" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>到達階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="テキスト ボックス 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36570F97-B14C-4490-AB53-12A4D86F4B10}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="3649980"/>
+            <a:ext cx="777240" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>倒した敵</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>壊した岩</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>個</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="66" name="グループ化 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04171C26-E766-4D79-A2AF-A2C9E5F2AE75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2316480" y="2567940"/>
+          <a:ext cx="1844040" cy="1211580"/>
+          <a:chOff x="2270760" y="3627120"/>
+          <a:chExt cx="1844040" cy="1211580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="67" name="グループ化 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4E5F61-EEE2-48A9-B8CE-58936AE75C39}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2270760" y="3627120"/>
+            <a:ext cx="1844040" cy="1104900"/>
+            <a:chOff x="3611881" y="5013960"/>
+            <a:chExt cx="2011679" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="70" name="図 69">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A319FF5C-7477-49BB-9246-C68269F4E85D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3611881" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="71" name="図 70">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D412FA01-C0E7-4726-8979-08AB208142DD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4617720" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="テキスト ボックス 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B217F7E9-97F9-4C27-B561-6C6543AA2B82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2385060" y="3886200"/>
+            <a:ext cx="777240" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>到達階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="テキスト ボックス 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C682C5-61AF-4873-87BB-4CE207396123}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="3649980"/>
+            <a:ext cx="777240" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>倒した敵</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>壊した岩</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>個</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="グループ化 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7BC0F4F-1D84-4599-A593-D08BF4271722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2331720" y="9311640"/>
+          <a:ext cx="1844040" cy="1211580"/>
+          <a:chOff x="2270760" y="3627120"/>
+          <a:chExt cx="1844040" cy="1211580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="73" name="グループ化 72">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD34CED-A67B-44E2-860E-3EFA751493DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2270760" y="3627120"/>
+            <a:ext cx="1844040" cy="1104900"/>
+            <a:chOff x="3611881" y="5013960"/>
+            <a:chExt cx="2011679" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="76" name="図 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DF158F-4C92-4E81-BE7B-3D873CC529C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3611881" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="77" name="図 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1F38A1-C16B-4E30-B6E5-EF4433630A5D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4617720" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="テキスト ボックス 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584A6C7A-4B89-4B8D-A116-7B66B18C8E7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2400300" y="3954780"/>
+            <a:ext cx="777240" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>到達階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="テキスト ボックス 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48F66C1-ACFF-4DDA-A3B1-DCF5B3F2AAB2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="3649980"/>
+            <a:ext cx="777240" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>倒した敵</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>壊した岩</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>個</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="グループ化 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431A054E-5C13-4B60-822B-5DC3CEC86342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5730240" y="9319260"/>
+          <a:ext cx="1844040" cy="1211580"/>
+          <a:chOff x="2270760" y="3627120"/>
+          <a:chExt cx="1844040" cy="1211580"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="79" name="グループ化 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4398C377-16D2-4958-A9D4-3A9A969EF7E0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="2270760" y="3627120"/>
+            <a:ext cx="1844040" cy="1104900"/>
+            <a:chOff x="3611881" y="5013960"/>
+            <a:chExt cx="2011679" cy="1104900"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="82" name="図 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FB389D-2EEC-4684-A468-0EAA6BF249FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3611881" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="83" name="図 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C217D574-F0AD-470C-A963-995947242D36}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="4617720" y="5013960"/>
+              <a:ext cx="1005840" cy="1104900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="テキスト ボックス 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C831E1A-7E56-413C-9E84-56896F2CEB2B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2400300" y="3954780"/>
+            <a:ext cx="777240" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>到達階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>階層</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="テキスト ボックス 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D9C60C-3291-4086-A7FD-5F6D1E85ADE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3238500" y="3649980"/>
+            <a:ext cx="777240" cy="1188720"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>倒した敵</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>体</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>壊した岩</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>9999</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>個</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>73511</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6418EC5-D95B-4999-9F2D-74F5D2CF5E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8882231" y="2975610"/>
+          <a:ext cx="536089" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>73511</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CFC114-A359-4F25-AD47-E3F117C9FAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7970520" y="3154680"/>
+          <a:ext cx="911711" cy="68580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>146548</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73DD6E11-AAB5-40D0-AB6B-4C84DF6524DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602468" y="2537460"/>
+          <a:ext cx="1186952" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今回の記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47488</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCCC1D4-B800-4C28-BA85-16F3D9539BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2318248" y="2575560"/>
+          <a:ext cx="1186952" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今回の記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>103991</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DC121C-5789-4BD6-86E8-D5016967BB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8577431" y="8709660"/>
+          <a:ext cx="673249" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>見出し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1138F0A5-37F7-4D42-AB67-52C7F2C628F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5669280" y="8663940"/>
+          <a:ext cx="2141220" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>103991</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E06823A-8CFE-4A02-8287-63B809F705AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="1"/>
+          <a:endCxn id="91" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7810500" y="8850630"/>
+          <a:ext cx="766931" cy="49530"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>126851</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EC5BE4-4BC7-400B-B3CC-7D9EFF5691F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8600291" y="9128760"/>
+          <a:ext cx="1221889" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リザルト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A75CD7B-1B6B-4ABC-B6CE-75D2DA2C9A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692140" y="9083040"/>
+          <a:ext cx="2004060" cy="1363980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>126851</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740191A6-FE4C-43B7-94C6-F8C7740B336E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="1"/>
+          <a:endCxn id="94" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7696200" y="9307830"/>
+          <a:ext cx="904091" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>73511</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8163B826-4F95-487C-A2F9-0D1A85DED331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049871" y="9734550"/>
+          <a:ext cx="536089" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背景</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>73511</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E85A215-E3C3-4AB0-B6DF-EBA3A6A0BC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8138160" y="9913620"/>
+          <a:ext cx="911711" cy="68580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70348</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="テキスト ボックス 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1891CC6D-B5C2-4CED-9B94-F8B3A02C49C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2341108" y="9334500"/>
+          <a:ext cx="1186952" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今回の記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>108448</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2559300F-91B8-462B-85F9-C1EE1D95EA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5732008" y="9357360"/>
+          <a:ext cx="1186952" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今回の記録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21092</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165872</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD5A566-2CF7-49F0-8763-D250845E4E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2627132" y="1865016"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>66812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>43952</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51456</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D23D302-2307-4189-A7FD-3DC60F21912B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5858012" y="1887876"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GAME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>89556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFEA867-1872-4A7D-8242-BE1F4BB1D56A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712721" y="8662056"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>89556</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A4A0F2-5942-42E7-B837-7882C07B9C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6012181" y="8662056"/>
+          <a:ext cx="1485900" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ハイスコア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20684,18 +22859,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="2.09765625" style="20"/>
     <col min="4" max="4" width="11.5" style="20" customWidth="1"/>
     <col min="5" max="5" width="8.09765625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="20" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" style="20" customWidth="1"/>
     <col min="8" max="16384" width="2.09765625" style="20"/>
   </cols>
@@ -20720,30 +22893,58 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="13.05" customHeight="1">
-      <c r="D5" s="22">
+      <c r="D5" s="43">
         <v>46037</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="13.05" customHeight="1">
-      <c r="D6" s="22">
+      <c r="D6" s="43">
         <v>46037</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="13.05" customHeight="1">
+      <c r="D7" s="43">
+        <v>46038</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="13.05" customHeight="1">
+      <c r="D8" s="43">
+        <v>46038</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>48</v>
       </c>
     </row>
@@ -21049,8 +23250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008EA669-9892-4983-8339-6D8C60A35D66}">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="AW26" sqref="AW26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1"/>
@@ -21059,14 +23260,14 @@
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="28" customFormat="1" ht="24.6" customHeight="1">
+    <row r="1" spans="1:5" s="27" customFormat="1" ht="24.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -21124,7 +23325,7 @@
     </row>
     <row r="32" spans="2:6" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="E32" s="12" t="s">
         <v>59</v>
       </c>
@@ -21134,51 +23335,61 @@
         <v>60</v>
       </c>
     </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1">
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="36" spans="2:8" ht="15" customHeight="1">
-      <c r="F36" t="s">
-        <v>61</v>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15" customHeight="1">
+      <c r="F37" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1">
       <c r="G40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
       <c r="H41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1">
       <c r="G43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B44" s="11"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="22"/>
       <c r="E44" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1">
       <c r="E46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1">
       <c r="F48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="7:13" ht="15" customHeight="1">
       <c r="G50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="7:13" ht="15" customHeight="1">
@@ -21186,295 +23397,295 @@
         <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="7:13" ht="15" customHeight="1">
       <c r="G52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="7:13" ht="15" customHeight="1">
       <c r="G53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="7:13" ht="15" customHeight="1">
       <c r="G54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="7:13" ht="15" customHeight="1">
       <c r="G55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="7:13" ht="15" customHeight="1">
-      <c r="G57" s="24"/>
-      <c r="H57" s="24" t="s">
-        <v>73</v>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23" t="s">
+        <v>72</v>
       </c>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="59" spans="7:13" ht="15" customHeight="1">
       <c r="H59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="7:13" ht="15" customHeight="1">
-      <c r="G61" s="24"/>
-      <c r="H61" s="24" t="s">
-        <v>68</v>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23" t="s">
+        <v>67</v>
       </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="63" spans="7:13" ht="15" customHeight="1">
       <c r="H63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="7:13" ht="15" customHeight="1">
       <c r="I64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="7:13" ht="15" customHeight="1">
-      <c r="G66" s="24"/>
-      <c r="H66" s="24" t="s">
-        <v>77</v>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23" t="s">
+        <v>76</v>
       </c>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
     </row>
     <row r="68" spans="7:13" ht="15" customHeight="1">
       <c r="H68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="7:13" ht="15" customHeight="1">
       <c r="I69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="7:13" ht="15" customHeight="1">
       <c r="I70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="7:13" ht="15" customHeight="1">
-      <c r="G72" s="24"/>
-      <c r="H72" s="24" t="s">
-        <v>80</v>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23" t="s">
+        <v>79</v>
       </c>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
     </row>
     <row r="74" spans="7:13" ht="15" customHeight="1">
       <c r="H74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="7:13" ht="15" customHeight="1">
       <c r="I75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="7:13" ht="15" customHeight="1">
       <c r="H76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="7:13" ht="15" customHeight="1">
       <c r="I77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="7:13" ht="15" customHeight="1">
-      <c r="G79" s="24"/>
-      <c r="H79" s="24" t="s">
-        <v>84</v>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23" t="s">
+        <v>83</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="81" spans="2:13" ht="15" customHeight="1">
       <c r="H81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="15" customHeight="1">
       <c r="I82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="15" customHeight="1">
       <c r="J83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="15" customHeight="1">
-      <c r="G85" s="24"/>
-      <c r="H85" s="24" t="s">
-        <v>88</v>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23" t="s">
+        <v>87</v>
       </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
     </row>
     <row r="87" spans="2:13" ht="15" customHeight="1">
       <c r="H87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="15" customHeight="1">
       <c r="I88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="15" customHeight="1">
       <c r="F90" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="2:13" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B92" s="11"/>
-      <c r="C92" s="23"/>
+      <c r="C92" s="22"/>
       <c r="E92" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="2:13" ht="15" customHeight="1">
       <c r="E94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="15" customHeight="1">
       <c r="F96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="7:8" ht="15" customHeight="1">
       <c r="G97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="7:8" ht="15" customHeight="1">
       <c r="H98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="7:8" ht="15" customHeight="1">
       <c r="G100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="7:8" ht="15" customHeight="1">
       <c r="H102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="2:21" ht="15" customHeight="1">
       <c r="U119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="2:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B121" s="11"/>
-      <c r="C121" s="23"/>
+      <c r="C121" s="22"/>
       <c r="E121" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="2:21" ht="15" customHeight="1">
       <c r="F123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="2:21" ht="15" customHeight="1">
       <c r="G125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="2:21" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B127" s="11"/>
-      <c r="C127" s="23"/>
+      <c r="C127" s="22"/>
       <c r="E127" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="2:18" ht="15" customHeight="1">
       <c r="F129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="2:18" ht="15" customHeight="1">
       <c r="G130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="2:18" ht="15" customHeight="1">
       <c r="G131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="2:18" ht="15" customHeight="1">
       <c r="H132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="2:18" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="B134" s="11"/>
-      <c r="C134" s="23"/>
+      <c r="C134" s="22"/>
       <c r="E134" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="136" spans="2:18" ht="15" customHeight="1">
       <c r="F136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="2:18" ht="15" customHeight="1">
       <c r="G138" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="2:18" ht="15" customHeight="1">
       <c r="G140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15" customHeight="1">
       <c r="G156" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="158" spans="2:7" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="B158" s="25"/>
-      <c r="D158" s="27" t="s">
-        <v>114</v>
+    <row r="158" spans="2:7" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="B158" s="24"/>
+      <c r="D158" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -21486,106 +23697,381 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B963E13-58BB-4108-B888-103133C66C85}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.05" customHeight="1">
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B7" s="30"/>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.05" customHeight="1">
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B13" s="30"/>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" ht="16.05" customHeight="1">
+      <c r="F26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="28" spans="6:10" ht="16.05" customHeight="1">
+      <c r="G28" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" ht="16.05" customHeight="1">
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" ht="16.05" customHeight="1">
+      <c r="F32" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.05" customHeight="1">
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="16.05" customHeight="1">
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="6" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B38" s="41"/>
+      <c r="D38" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3175F1-FB4D-4C54-BFB0-C9A1185C8A4E}">
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12" style="30" customWidth="1"/>
+    <col min="2" max="2" width="12" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>116</v>
+      <c r="C1" s="33" t="s">
+        <v>130</v>
       </c>
-      <c r="C1" s="34" t="s">
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="D3" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B3" s="31"/>
-      <c r="D3" s="4" t="s">
+    <row r="5" spans="1:5" ht="16.05" customHeight="1">
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B7" s="30"/>
+      <c r="D7" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.05" customHeight="1">
-      <c r="E5" t="s">
+    <row r="8" spans="1:5" s="37" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B8" s="36"/>
+      <c r="C8" s="39"/>
+      <c r="E8" s="38" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B7" s="31"/>
-      <c r="D7" s="4" t="s">
+    <row r="21" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="6:9" ht="16.05" customHeight="1">
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F24" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="16.05" customHeight="1">
+      <c r="I33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F35" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="42" spans="2:9" s="12" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B42" s="35"/>
+      <c r="C42" s="22"/>
+      <c r="E42" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.05" customHeight="1">
-      <c r="E9" t="s">
+    <row r="55" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F55" s="23" t="s">
         <v>121</v>
       </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
     </row>
-    <row r="11" spans="1:6" ht="16.05" customHeight="1">
-      <c r="F11" t="s">
+    <row r="56" spans="6:9" ht="16.05" customHeight="1">
+      <c r="G56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F58" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22" t="s">
         <v>122</v>
       </c>
+      <c r="I62" s="22"/>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B13" s="31"/>
-      <c r="D13" s="4" t="s">
-        <v>123</v>
+    <row r="63" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="6:9" ht="16.05" customHeight="1">
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.05" customHeight="1">
-      <c r="E15" t="s">
-        <v>124</v>
+    <row r="65" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="12" customFormat="1" ht="16.05" customHeight="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="23"/>
-      <c r="E17" s="12" t="s">
-        <v>127</v>
+    <row r="66" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="16.05" customHeight="1">
-      <c r="F29" s="24" t="s">
-        <v>128</v>
+    <row r="67" spans="2:9" ht="16.05" customHeight="1">
+      <c r="I67" t="s">
+        <v>137</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
     </row>
-    <row r="38" spans="5:10" ht="16.05" customHeight="1">
-      <c r="E38" s="24" t="s">
-        <v>125</v>
+    <row r="69" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F69" s="23" t="s">
+        <v>138</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="G69" s="23"/>
     </row>
-    <row r="51" spans="5:18" ht="16.05" customHeight="1">
-      <c r="E51" s="24" t="s">
-        <v>126</v>
+    <row r="70" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22" t="s">
+        <v>142</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
+    </row>
+    <row r="72" spans="2:9" ht="16.05" customHeight="1">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="74" spans="2:9" s="6" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B74" s="41"/>
+      <c r="D74" s="42" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>

--- a/Document/100_DUYD画面仕様.xlsx
+++ b/Document/100_DUYD画面仕様.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FB064-E122-47F1-9C57-0B7E01FCB6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03D792-989B-4238-9653-FBE2244280B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
     <sheet name="タイトル画面仕様" sheetId="2" r:id="rId2"/>
-    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId3"/>
-    <sheet name="探索の書画面仕様" sheetId="4" r:id="rId4"/>
-    <sheet name="GameOver画面仕様" sheetId="5" r:id="rId5"/>
+    <sheet name="チュートリアル画面仕様" sheetId="7" r:id="rId3"/>
+    <sheet name="プレイ画面仕様" sheetId="3" r:id="rId4"/>
+    <sheet name="探索の書画面仕様" sheetId="4" r:id="rId5"/>
+    <sheet name="GameOver画面仕様" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="186">
   <si>
     <t>更新日</t>
   </si>
@@ -1353,6 +1354,403 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>このシートでは、チュートリアルの画面仕様について記載します</t>
+    <rPh sb="16" eb="20">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>チュートリアル画面仕様</t>
+  </si>
+  <si>
+    <t>チュートリアル画面仕様</t>
+    <rPh sb="7" eb="11">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>構成要素は以下の通り</t>
+    <rPh sb="0" eb="4">
+      <t>コウセイヨウソ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・フィールド</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・岩</t>
+    <rPh sb="1" eb="2">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・ヒント</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・壁</t>
+    <rPh sb="1" eb="2">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・床</t>
+    <rPh sb="1" eb="2">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>マップの外周を示します</t>
+    <rPh sb="4" eb="6">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>壁は破壊することが出来ません</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>床</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プレイヤーが行動できる場所を示します</t>
+    <rPh sb="6" eb="8">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>床以外の場所にプレイヤーは移動できません</t>
+    <rPh sb="0" eb="3">
+      <t>ユカイガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プレイヤーが破壊できるものです</t>
+    <rPh sb="6" eb="8">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>破壊すると床が出てきます</t>
+    <rPh sb="0" eb="2">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>初期の表示位置はマップ左上</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヒョウジイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・酸素鉱石</t>
+    <rPh sb="1" eb="5">
+      <t>サンソコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>・強化鉱石</t>
+    <rPh sb="1" eb="5">
+      <t>キョウカコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>酸素鉱石</t>
+    <rPh sb="0" eb="4">
+      <t>サンソコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>これを破壊したらO2ゲージが回復します</t>
+    <rPh sb="3" eb="5">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>これを破壊したらゲームを一時停止させて説明のテロップを入れます</t>
+    <rPh sb="3" eb="5">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>イメージ画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>強化鉱石</t>
+    <rPh sb="0" eb="4">
+      <t>キョウカコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>※これの詳細はプレイシーンにあります</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>これを破壊したら鉱石の数値が増えます</t>
+    <rPh sb="3" eb="5">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プレイヤーは移動、破壊、攻撃、装備強化の４つのことが出来ます</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>※詳細はキャラクター仕様書に記載</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>プレイヤーが階段の上で３秒間静止したらクリアとしてプレイシーンに遷移します</t>
+    <rPh sb="6" eb="8">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>階段の上に数字を出して３秒間のカウントダウンを行う</t>
+    <rPh sb="0" eb="2">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ヒント</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>フィールド外に操作説明のテロップを表示します</t>
+    <rPh sb="5" eb="6">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>表示内容は上の画像の通り</t>
+    <rPh sb="0" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>初期値は上の画像の通りにしてください</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>ヘッダーに関する詳細はプレイ画面仕様に記載しています</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -1598,7 +1996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1656,6 +2054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8223,23 +8622,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21">
+        <xdr:cNvPr id="36" name="グループ化 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D24FC3-BFF5-4F20-807C-0B36821E526E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1123193D-A162-40C3-83BE-FF0233F49411}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8247,18 +8646,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2080260" y="1661160"/>
-          <a:ext cx="3848100" cy="2598420"/>
-          <a:chOff x="2080260" y="1455420"/>
-          <a:chExt cx="3848100" cy="2103120"/>
+          <a:off x="1766889" y="2457450"/>
+          <a:ext cx="4333875" cy="1400175"/>
+          <a:chOff x="1766889" y="1657350"/>
+          <a:chExt cx="4333875" cy="1400175"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="四角形 1">
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55501579-178C-47D6-B600-BE96C45E49CD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8266,23 +8665,17 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2082165" y="1459230"/>
-            <a:ext cx="3653790" cy="2095500"/>
+            <a:off x="1766889" y="1657350"/>
+            <a:ext cx="1500186" cy="1400175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
             <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
+              <a:shade val="50000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
@@ -8296,29 +8689,20 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" indent="0" algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:endParaRPr>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778FCC30-ADCC-446F-AEEE-31F6E8279C48}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB4E24E-F680-42C0-9E6C-760D4616CCB0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8326,12 +8710,62 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4739640" y="1661160"/>
-            <a:ext cx="784860" cy="655320"/>
+            <a:off x="4600576" y="1657350"/>
+            <a:ext cx="1500188" cy="1400175"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94040FE9-8E5C-453F-A496-3A6B37717EE8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3100388" y="2257425"/>
+            <a:ext cx="1666875" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -8363,10 +8797,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD81C6A3-6B22-4BF6-AEDB-88C1DFE90AA6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF869839-EA58-4AE4-8187-52BDA5A27FD1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8374,12 +8808,108 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2697480" y="1524000"/>
-            <a:ext cx="167640" cy="2034540"/>
+            <a:off x="3267075" y="2457449"/>
+            <a:ext cx="1333500" cy="200026"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1C5BEF-2542-4499-B87A-4BDD1A1B238F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2057400"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDF97F6-52BF-4365-AF38-ECDAA9128D55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1919289" y="1809751"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -8411,10 +8941,3930 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="角丸四角形 17">
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CCF6C4-3E77-3275-01B5-3C03DFE3537C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC600F32-1337-4D0E-AB00-37DECD6365E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4767263" y="1809750"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="フローチャート: 組合せ 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F3ECB6-8088-4500-BED3-56A4C79F1B14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1933575" y="1857375"/>
+            <a:ext cx="166688" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AA4360-A184-462D-9117-529D224AE895}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600701" y="2457450"/>
+            <a:ext cx="166687" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F71C70-98EA-4FC7-91A4-B8F971D907FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7934325" y="2457450"/>
+          <a:ext cx="4333875" cy="1400175"/>
+          <a:chOff x="1766889" y="1657350"/>
+          <a:chExt cx="4333875" cy="1400175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBF0766-304A-4AC2-A018-E91B6D52B464}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1766889" y="1657350"/>
+            <a:ext cx="1500186" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{271E9CE8-F23F-41EF-A436-392FDA0A2BC4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4600576" y="1657350"/>
+            <a:ext cx="1500188" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E05A03-BF98-4483-91F6-A9EC7EA64012}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3100388" y="2257425"/>
+            <a:ext cx="1666875" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8117B94F-CA08-4946-8CFA-A0B1436BF200}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2457449"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D55BAA-7048-4070-90A1-9295A09220D4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2057400"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBE62E3-27D0-465D-81D9-2ED3A79484DE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1919289" y="1809751"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEAF184-C728-4CF2-82AF-1FE7215AAE06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4767263" y="1809750"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="フローチャート: 組合せ 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F050CCE3-1806-429A-806B-770D66601D34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1933575" y="1857375"/>
+            <a:ext cx="166688" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9943145-68A1-4C5A-A6F0-22E98448DFF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600701" y="2457450"/>
+            <a:ext cx="166687" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CFD470-1A18-4FB8-9322-EF596A49AEE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267449" y="1657350"/>
+          <a:ext cx="1000125" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>23799</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>23799</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E26A090-14B8-48C5-988E-A61B7BA272B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6291249" y="2233623"/>
+          <a:ext cx="1000125" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フィールド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>114292</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1088BAF-D968-48B2-83FB-E4768F47A555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12739688" y="2605095"/>
+          <a:ext cx="476242" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>階段</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85740E24-7D41-4D44-B6B8-0E1DD1BFD05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267574" y="1819275"/>
+          <a:ext cx="738189" cy="95251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>23799</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138123</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C059D30-4276-4BB8-A31B-8B6D4284F523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7291374" y="2383632"/>
+          <a:ext cx="509602" cy="11916"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F1CCE2-F5E5-4676-9634-09E408EC7EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8005763" y="1709738"/>
+          <a:ext cx="419100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4E6812-2402-43FC-9B83-E07AEF235523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800976" y="1504950"/>
+          <a:ext cx="4729162" cy="1757363"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A3CE83-E07C-47CB-8BAE-364E3C1630A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+          <a:endCxn id="65" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12068175" y="2538413"/>
+          <a:ext cx="671513" cy="228607"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5FFB58-F60C-4510-9E41-D47FEBE54340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11649075" y="2333625"/>
+          <a:ext cx="419100" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2532284B-9466-4216-BAFD-9404D54261E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3138487" y="1681163"/>
+          <a:ext cx="1609725" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左クリックで岩を掘る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38078262-6AB6-4331-A664-8E413C8D54B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3128962" y="2714626"/>
+          <a:ext cx="1609725" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右クリックで攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66673</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12F3D13-80E7-4A61-88BE-3A1203A3DA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5167311" y="2728913"/>
+          <a:ext cx="1309689" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>階段に触れて次へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>147636</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E32ABC-CE50-45C9-BAEA-11873D880A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305924" y="1676400"/>
+          <a:ext cx="1609725" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左クリックで岩を掘る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BE8A61-AC4B-4BFC-A7F8-DACC6F32FEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296399" y="2709863"/>
+          <a:ext cx="1609725" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右クリックで攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>66673</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07969157-CC02-431D-8F17-0E0AC372A607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334748" y="2724150"/>
+          <a:ext cx="1309689" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>階段に触れて次へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>133334</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{143FED33-305E-43C2-A584-3B718C974A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12549188" y="1690700"/>
+          <a:ext cx="685784" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヒント</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>147636</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>195275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B163DD8-E8BD-4659-878B-FE664F0A931B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="1"/>
+          <a:endCxn id="71" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10915649" y="1843088"/>
+          <a:ext cx="1633539" cy="9537"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="グループ化 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A38A55-CBC8-42B4-A853-74B65CC3A7ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1943101" y="6262687"/>
+          <a:ext cx="4333875" cy="1400175"/>
+          <a:chOff x="1766889" y="1657350"/>
+          <a:chExt cx="4333875" cy="1400175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB026F55-5D8A-4CF8-8F6C-F0DD9A5B3078}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1766889" y="1657350"/>
+            <a:ext cx="1500186" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="正方形/長方形 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8961D2D-875D-4552-8A47-CF44EFEB7241}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4600576" y="1657350"/>
+            <a:ext cx="1500188" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="正方形/長方形 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939292BB-44F9-4F1A-B9E4-EBF4D89DB996}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3100388" y="2257425"/>
+            <a:ext cx="1666875" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="正方形/長方形 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4577AD-68E4-486B-B84A-C400002805A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2457449"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="正方形/長方形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72486B95-45BA-4ADB-86D2-B4F083E8D02A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2057400"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FB80D3-693E-4BA3-BF42-B6E1B7E0C672}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1919289" y="1809751"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857B746F-5B5F-458C-A7A8-0668514552B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4767263" y="1809750"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6096AC71-E014-41C4-A597-B65D45CAE868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6481761" y="5410200"/>
+          <a:ext cx="371477" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE8C5DE-D54F-46AF-BA6E-1FA763948254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6205539" y="5572125"/>
+          <a:ext cx="276222" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56AF4B3C-06AB-4F13-91E1-F5E53118B323}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067424" y="6134100"/>
+          <a:ext cx="371477" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>床</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82769A5-1416-4858-B2F3-AD2658952C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="102" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5753102" y="6296025"/>
+          <a:ext cx="314322" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D14314-4148-47BD-B5DB-2608FFE05266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114924" y="5938837"/>
+          <a:ext cx="371477" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>岩</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33339</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2053369-94D9-4E34-AD32-0E8B084BE3A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800602" y="6100762"/>
+          <a:ext cx="314322" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="テキスト ボックス 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9932AC42-A04F-4478-9184-9C748D125ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838324" y="2505075"/>
+          <a:ext cx="1309689" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WASD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33345BC5-7504-4CBE-B92F-A20C5A236D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="2257426"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450BE5A6-3BDC-4FD0-AC69-E71E06773917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267201" y="2257425"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2C08CC-F0CC-4630-B119-A98896B2109D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9653587" y="2257426"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC04CA9-90AC-413F-B8E6-EBD008E4CDC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10434638" y="2257425"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD50C3AD-61D0-4818-A6D2-E887329533D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="6057901"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DDBD30-3428-4CDD-A246-2A6F598E8EBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419601" y="6057900"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="テキスト ボックス 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BF0011-D64F-4286-982C-EBED38F076F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="5438775"/>
+          <a:ext cx="833438" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>酸素鉱石</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121444</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E923F265-782C-4406-A32E-066600D2A961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="114" idx="2"/>
+          <a:endCxn id="112" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3721894" y="5762625"/>
+          <a:ext cx="295275" cy="295276"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="テキスト ボックス 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F2C90D-7C81-4273-BBD0-630124A6E46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3767138" y="6734175"/>
+          <a:ext cx="833438" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>強化鉱石</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69057</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F93DEE-07D2-44F9-A23B-AA5641CE6C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="119" idx="0"/>
+          <a:endCxn id="113" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4183857" y="6257924"/>
+          <a:ext cx="319088" cy="476251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="グループ化 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF089CC-4480-4FD1-A3D1-4BD5ED892103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2266950" y="14258925"/>
+          <a:ext cx="4333875" cy="1400175"/>
+          <a:chOff x="1766889" y="1657350"/>
+          <a:chExt cx="4333875" cy="1400175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="正方形/長方形 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DDF87A-0143-4FD9-8523-D7CDE018CFAF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1766889" y="1657350"/>
+            <a:ext cx="1500186" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="正方形/長方形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A20045-04A2-4771-B48F-4B13AB62ECBD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4600576" y="1657350"/>
+            <a:ext cx="1500188" cy="1400175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="正方形/長方形 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22D68DA-7148-44BF-B071-45C9F939EE64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3100388" y="2257425"/>
+            <a:ext cx="1666875" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="正方形/長方形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA564E91-B974-4A89-8BAD-1987D5D32037}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2457449"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="正方形/長方形 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE96B5F6-17D5-41C2-AB48-C773EA4E6E15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3267075" y="2057400"/>
+            <a:ext cx="1333500" cy="200026"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="正方形/長方形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7D3928-F5B8-45DE-AB9E-77B22DA68690}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1919289" y="1809751"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="正方形/長方形 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBADC3F-CE4B-4A15-969F-23E454E06564}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4767263" y="1809750"/>
+            <a:ext cx="1181099" cy="1047750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="フローチャート: 組合せ 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B431C2-7785-427B-B571-FF0A82912A89}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1933575" y="1857375"/>
+            <a:ext cx="166688" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMerge">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="正方形/長方形 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2E3478-A70A-49FE-B2A9-64E0C85202F6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5600701" y="2457450"/>
+            <a:ext cx="166687" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52386</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>52385</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="正方形/長方形 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEFCAAD-5F55-47B9-9DA7-C6172508CDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3986211" y="14058901"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="正方形/長方形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B17DE6F-13CF-4E46-9D86-D88A1A714615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4767262" y="14058900"/>
+          <a:ext cx="166687" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A565E7-91C9-4747-9B44-5D7E19008697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="13658850"/>
+          <a:ext cx="3000375" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>テロップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>134169</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="144" name="グループ化 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6143BDBB-94B7-4019-B6CC-CFCA1B4F6F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2100263" y="1771546"/>
+          <a:ext cx="3801294" cy="600179"/>
+          <a:chOff x="8767763" y="5857875"/>
+          <a:chExt cx="3801294" cy="600179"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="角丸四角形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60AEAB8-69C8-4CB3-8B01-568E645A8D2E}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
                 <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
@@ -8425,8 +12875,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2080260" y="1483995"/>
-            <a:ext cx="3653790" cy="457200"/>
+            <a:off x="8767763" y="5893180"/>
+            <a:ext cx="3697201" cy="564874"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -8464,10 +12914,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <xdr:cNvPr id="146" name="テキスト ボックス 145">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09787619-88ED-1BCF-A809-A61C985D9E81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395AC151-AF29-4288-AC24-A39F87FA1395}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
                 <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
@@ -8478,8 +12928,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2863214" y="1455420"/>
-            <a:ext cx="908685" cy="480060"/>
+            <a:off x="9560019" y="5857875"/>
+            <a:ext cx="919481" cy="593118"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8542,10 +12992,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <xdr:cNvPr id="147" name="テキスト ボックス 146">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94E02D8-1195-43BF-8DB2-685D7D4251D7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AF350B-64CC-462A-BBF0-A2E12C03617C}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
                 <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC491F51-99FD-3D01-DBFF-CD70FBC72EFB}"/>
@@ -8556,8 +13006,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3501390" y="1463040"/>
-            <a:ext cx="434340" cy="238125"/>
+            <a:off x="10205778" y="5867290"/>
+            <a:ext cx="439500" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8676,10 +13126,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <xdr:cNvPr id="148" name="テキスト ボックス 147">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1B917D-F522-4626-9FA2-64464EE14F75}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E809A75-D622-40E5-9204-2BACDA06CC96}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
                 <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
@@ -8690,8 +13140,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4280535" y="1470660"/>
-            <a:ext cx="752475" cy="238125"/>
+            <a:off x="10994180" y="5876704"/>
+            <a:ext cx="761415" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8824,10 +13274,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <xdr:cNvPr id="149" name="テキスト ボックス 148">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6DFC3A-5BA4-4956-A7EB-B0B7DCBAA41E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A67E14-8634-4F31-987F-2C0161BF51B8}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
                 <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3B1B917D-F522-4626-9FA2-64464EE14F75}"/>
@@ -8838,8 +13288,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4867275" y="1470660"/>
-            <a:ext cx="969645" cy="238125"/>
+            <a:off x="11587891" y="5876704"/>
+            <a:ext cx="981166" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -8972,10 +13422,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <xdr:cNvPr id="150" name="テキスト ボックス 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF4E6E0-40A2-4B76-8FE9-10C104BD251E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F09035-EE7D-4873-A5B1-D2C71F9FC3AF}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
                 <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA6DFC3A-5BA4-4956-A7EB-B0B7DCBAA41E}"/>
@@ -8986,8 +13436,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2129790" y="1487805"/>
-            <a:ext cx="556260" cy="238125"/>
+            <a:off x="8817881" y="5897887"/>
+            <a:ext cx="562869" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9087,13 +13537,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <xdr:cNvPr id="151" name="テキスト ボックス 150">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0365132F-8544-4E2A-953B-802D8104791C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FBAB6F-70DA-4134-BE88-CEC0F6555037}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FDF4E6E0-40A2-4B76-8FE9-10C104BD251E}"/>
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9101,8 +13551,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4810125" y="3303271"/>
-            <a:ext cx="1118235" cy="217170"/>
+            <a:off x="10252041" y="6081471"/>
+            <a:ext cx="761415" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9187,15 +13637,151 @@
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>H:</a:t>
+              <a:t>999/999</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>75381</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="152" name="グループ化 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D869E7F-52E4-4A45-83E2-7BC5244ECFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8343081" y="1819171"/>
+          <a:ext cx="3801294" cy="600179"/>
+          <a:chOff x="8767763" y="5857875"/>
+          <a:chExt cx="3801294" cy="600179"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="角丸四角形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7FF432-C37C-4F2A-8E80-2326807F615B}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8767763" y="5893180"/>
+            <a:ext cx="3697201" cy="564874"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="テキスト ボックス 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F28901-294B-484F-B4BD-E534BE4FDF55}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9560019" y="5857875"/>
+            <a:ext cx="919481" cy="593118"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>HP</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -9206,20 +13792,39 @@
                 <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>ボタン説明</a:t>
+              <a:t>　</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>999/999</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <xdr:cNvPr id="155" name="テキスト ボックス 154">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D88B869-6B49-4CC3-9278-09C3673DAF7D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227984E9-9784-4641-B225-43ABEFCC5BD1}"/>
               </a:ext>
               <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC491F51-99FD-3D01-DBFF-CD70FBC72EFB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9227,8 +13832,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3547110" y="1636395"/>
-            <a:ext cx="752475" cy="238125"/>
+            <a:off x="10205778" y="5867290"/>
+            <a:ext cx="439500" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9313,6 +13918,551 @@
           <a:p>
             <a:pPr marL="0" indent="0" algn="l"/>
             <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>₂</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="テキスト ボックス 155">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47752824-7BC9-4969-B0BC-46EE3EBBEA37}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10994180" y="5876704"/>
+            <a:ext cx="761415" cy="294205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>石</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>99/99</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="テキスト ボックス 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFE453C-EDBC-460C-AFE7-01C227A1CCB5}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3B1B917D-F522-4626-9FA2-64464EE14F75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11587891" y="5876704"/>
+            <a:ext cx="981166" cy="294205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>鉱石</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>9999</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="テキスト ボックス 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1D5EA6-8DA1-4FB9-95DF-82F992B54941}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA6DFC3A-5BA4-4956-A7EB-B0B7DCBAA41E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8817881" y="5897887"/>
+            <a:ext cx="562869" cy="294205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>B999F</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="テキスト ボックス 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549E5584-2ECC-4C8F-BE6C-158843BD5781}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10252041" y="6081471"/>
+            <a:ext cx="761415" cy="294205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
@@ -9326,12 +14476,318 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="テキスト ボックス 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C2A075-3F64-4378-B6C5-02418C9EDAA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267449" y="1657350"/>
+          <a:ext cx="1000125" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="38100" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ヘッダー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="直線矢印コネクタ 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23413DC-1DF7-46B8-8815-D0ED66C4AC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="3"/>
+          <a:endCxn id="162" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267574" y="1819275"/>
+          <a:ext cx="833439" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>166686</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="正方形/長方形 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88653D13-D091-4FEB-8248-CBD15DE785FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8101013" y="1657350"/>
+          <a:ext cx="4167186" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="テキスト ボックス 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA28EB1F-A8E1-4885-967D-83E944C1A9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7958136" y="3324225"/>
+          <a:ext cx="1309689" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>WASD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で移動</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134169</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>104</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="166" name="グループ化 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33820FA2-F023-45BA-A4C8-419E9C34390F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1933575" y="21059775"/>
+          <a:ext cx="3801294" cy="600179"/>
+          <a:chOff x="8767763" y="5857875"/>
+          <a:chExt cx="3801294" cy="600179"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <xdr:cNvPr id="167" name="角丸四角形 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664822FF-7403-4272-80D0-C2A0563BE970}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC37D12-2D15-411F-A149-4C5DD171654F}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9339,20 +14795,22 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3162300" y="2522220"/>
-            <a:ext cx="784860" cy="655320"/>
+            <a:off x="8767763" y="5893180"/>
+            <a:ext cx="3697201" cy="564874"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
+          <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="70000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
             <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
+              <a:shade val="15000"/>
             </a:schemeClr>
           </a:lnRef>
           <a:fillRef idx="1">
@@ -9370,301 +14828,2454 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <xdr:cNvPr id="168" name="テキスト ボックス 167">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F92AC00-D9EF-4558-827C-9A6F43915530}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C2C0DE-EA91-42CA-BFEC-D6B726F06AD3}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="2941320" y="2689860"/>
-            <a:ext cx="114300" cy="533400"/>
+          <a:xfrm>
+            <a:off x="9560019" y="5857875"/>
+            <a:ext cx="919481" cy="593118"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
           </a:ln>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>HP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>999/999</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <xdr:cNvPr id="169" name="テキスト ボックス 168">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AC40AC-58B8-4AA2-B33B-E6E25DC4CFB1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70E6D94-6DF4-4DDC-9F56-903CC4E9DC6E}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC491F51-99FD-3D01-DBFF-CD70FBC72EFB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="4450080" y="1554480"/>
-            <a:ext cx="186690" cy="2327910"/>
+          <a:xfrm>
+            <a:off x="10205778" y="5867290"/>
+            <a:ext cx="439500" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
           </a:ln>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>O</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>₂</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <xdr:cNvPr id="170" name="テキスト ボックス 169">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F76A7D1-973B-4B5D-9841-A3EA10AD383C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CB97FB-42FA-4185-93C4-FBBFEF5954CF}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5128260" y="2103120"/>
-            <a:ext cx="152400" cy="693420"/>
+            <a:off x="10994180" y="5876704"/>
+            <a:ext cx="761415" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
             <a:noFill/>
           </a:ln>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>石</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>　０</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>/10</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="フローチャート: 結合子 10">
+          <xdr:cNvPr id="171" name="テキスト ボックス 170">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7B5016-F400-4F8E-946D-05F1B7404332}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34585557-5EEC-4352-9C93-7FB3C9317D04}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3B1B917D-F522-4626-9FA2-64464EE14F75}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2697480" y="2613660"/>
-            <a:ext cx="167640" cy="175260"/>
+            <a:off x="11587891" y="5876704"/>
+            <a:ext cx="981166" cy="294205"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>鉱石</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>　０</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="フローチャート: 結合子 20">
+          <xdr:cNvPr id="172" name="テキスト ボックス 171">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6BCFAE-927E-4B26-8F19-11E114A1B82A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44157581-0845-4F2B-9254-1AE23BC8FF8A}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA6DFC3A-5BA4-4956-A7EB-B0B7DCBAA41E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4762500" y="2118360"/>
-            <a:ext cx="167640" cy="175260"/>
+            <a:off x="8817881" y="5897887"/>
+            <a:ext cx="562869" cy="294205"/>
           </a:xfrm>
-          <a:prstGeom prst="flowChartConnector">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>???</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>F</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <xdr:cNvPr id="173" name="テキスト ボックス 172">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E555E591-6AE4-421F-B785-2EBD8EE7A036}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8863F6AB-69F8-4267-B98B-5CFEF4CED8FC}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvSpPr/>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3695700" y="2933700"/>
-            <a:ext cx="198120" cy="190500"/>
+            <a:off x="10252041" y="6081471"/>
+            <a:ext cx="761415" cy="294205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
         </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:lvl1pPr marL="0" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" indent="0">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>100/100</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9548</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085998" y="1663010"/>
+          <a:ext cx="3697201" cy="2589005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107797</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>92357</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778FCC30-ADCC-446F-AEEE-31F6E8279C48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775047" y="1912496"/>
+          <a:ext cx="794185" cy="809653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146398</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154105</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD81C6A3-6B22-4BF6-AEDB-88C1DFE90AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2708623" y="1743034"/>
+          <a:ext cx="169632" cy="2513689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142471</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CCF6C4-3E77-3275-01B5-3C03DFE3537C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2084070" y="1693608"/>
+          <a:ext cx="3697201" cy="564874"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152176</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100107</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09787619-88ED-1BCF-A809-A61C985D9E81}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7718F353-30BE-BB76-B532-4C67C31A1A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876326" y="1658303"/>
+          <a:ext cx="919481" cy="593118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>999/999</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>150235</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94E02D8-1195-43BF-8DB2-685D7D4251D7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC491F51-99FD-3D01-DBFF-CD70FBC72EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3522085" y="1667718"/>
+          <a:ext cx="439500" cy="294205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>₂</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129012</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>80802</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1B917D-F522-4626-9FA2-64464EE14F75}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310487" y="1677132"/>
+          <a:ext cx="761415" cy="294205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>石</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>99/99</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>75023</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>34069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84639</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6DFC3A-5BA4-4956-A7EB-B0B7DCBAA41E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3B1B917D-F522-4626-9FA2-64464EE14F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4904198" y="1677132"/>
+          <a:ext cx="981166" cy="294205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>鉱石</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>9999</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57738</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>134832</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF4E6E0-40A2-4B76-8FE9-10C104BD251E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA6DFC3A-5BA4-4956-A7EB-B0B7DCBAA41E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2134188" y="1698315"/>
+          <a:ext cx="562869" cy="294205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>B999F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17194</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0365132F-8544-4E2A-953B-802D8104791C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FDF4E6E0-40A2-4B76-8FE9-10C104BD251E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4846369" y="3941336"/>
+          <a:ext cx="1131521" cy="268315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>H:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ボタン説明</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>34573</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>148288</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D88B869-6B49-4CC3-9278-09C3673DAF7D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88346252-E34D-438D-A8D3-00765AFDAFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568348" y="1881899"/>
+          <a:ext cx="761415" cy="294205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>999/999</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>130966</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664822FF-7403-4272-80D0-C2A0563BE970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3178966" y="2976342"/>
+          <a:ext cx="794185" cy="809653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19170</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>84801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73132</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F92AC00-D9EF-4558-827C-9A6F43915530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2942580" y="3243104"/>
+          <a:ext cx="141218" cy="539737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>126875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>115485</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>167032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AC40AC-58B8-4AA2-B33B-E6E25DC4CFB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4461172" y="2040983"/>
+          <a:ext cx="230657" cy="2355568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15259</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7545</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F76A7D1-973B-4B5D-9841-A3EA10AD383C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5168284" y="2458541"/>
+          <a:ext cx="154211" cy="856725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146398</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>154105</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 結合子 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7B5016-F400-4F8E-946D-05F1B7404332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2708623" y="3089317"/>
+          <a:ext cx="169632" cy="216535"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>130928</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138635</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 結合子 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6BCFAE-927E-4B26-8F19-11E114A1B82A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4798178" y="2477370"/>
+          <a:ext cx="169632" cy="216535"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23003</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61552</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E555E591-6AE4-421F-B785-2EBD8EE7A036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718703" y="3484729"/>
+          <a:ext cx="200474" cy="235364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9693,8 +17304,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7025640" y="1645920"/>
-          <a:ext cx="3848100" cy="2598420"/>
+          <a:off x="7086600" y="1643063"/>
+          <a:ext cx="3895725" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -12240,8 +19851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6553200" y="9715500"/>
-          <a:ext cx="3848100" cy="2598420"/>
+          <a:off x="6610350" y="9712643"/>
+          <a:ext cx="3893820" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -14777,8 +22388,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2545080" y="19857720"/>
-          <a:ext cx="3848100" cy="2598420"/>
+          <a:off x="2552700" y="19854863"/>
+          <a:ext cx="3895725" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -16306,8 +23917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2636520" y="26868120"/>
-          <a:ext cx="3848100" cy="2598420"/>
+          <a:off x="2646045" y="26865263"/>
+          <a:ext cx="3893820" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -17797,7 +25408,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18472,8 +26083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2270760" y="3627120"/>
-          <a:ext cx="1844040" cy="1211580"/>
+          <a:off x="2266950" y="3657600"/>
+          <a:ext cx="1833563" cy="1223010"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -18727,8 +26338,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5676900" y="3649980"/>
-          <a:ext cx="1844040" cy="1211580"/>
+          <a:off x="5654040" y="3680460"/>
+          <a:ext cx="1833563" cy="1223010"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -19095,7 +26706,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20338,8 +27949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5600700" y="2552700"/>
-          <a:ext cx="1844040" cy="1211580"/>
+          <a:off x="5578793" y="2571750"/>
+          <a:ext cx="1833562" cy="1223010"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -20593,8 +28204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2316480" y="2567940"/>
-          <a:ext cx="1844040" cy="1211580"/>
+          <a:off x="2312670" y="2586990"/>
+          <a:ext cx="1833563" cy="1223010"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -20848,8 +28459,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2331720" y="9311640"/>
-          <a:ext cx="1844040" cy="1211580"/>
+          <a:off x="2327910" y="9395460"/>
+          <a:ext cx="1833563" cy="1223010"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -21103,8 +28714,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5730240" y="9319260"/>
-          <a:ext cx="1844040" cy="1211580"/>
+          <a:off x="5707380" y="9403080"/>
+          <a:ext cx="1833563" cy="1223010"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -22859,21 +30470,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.09765625" style="20"/>
+    <col min="1" max="3" width="2.125" style="20"/>
     <col min="4" max="4" width="11.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.09765625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="2.09765625" style="20"/>
+    <col min="5" max="5" width="8.125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.9375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.1875" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="2.125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="19" customFormat="1" ht="26.4">
+    <row r="1" spans="2:7" s="19" customFormat="1" ht="25.9">
       <c r="B1" s="18" t="s">
         <v>41</v>
       </c>
@@ -22948,6 +30559,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="9" spans="2:7" ht="13.05" customHeight="1">
+      <c r="D9" s="43">
+        <v>46042</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22959,9 +30584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF07837F-3729-4EA6-A844-0445594FBC74}">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
@@ -22984,7 +30611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1">
+    <row r="5" spans="1:5" ht="14.45" customHeight="1">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -23010,7 +30637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.2" customHeight="1">
+    <row r="29" spans="2:6" ht="16.25" customHeight="1">
       <c r="F29" t="s">
         <v>9</v>
       </c>
@@ -23020,7 +30647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="12" customFormat="1" ht="16.2" customHeight="1">
+    <row r="32" spans="2:6" s="12" customFormat="1" ht="16.25" customHeight="1">
       <c r="B32" s="11"/>
       <c r="C32"/>
       <c r="E32" s="12" t="s">
@@ -23032,7 +30659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="6:14" ht="16.2" customHeight="1">
+    <row r="36" spans="6:14" ht="16.25" customHeight="1">
       <c r="F36" t="s">
         <v>13</v>
       </c>
@@ -23054,7 +30681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="6:14" ht="16.2" customHeight="1">
+    <row r="42" spans="6:14" ht="16.25" customHeight="1">
       <c r="G42" t="s">
         <v>18</v>
       </c>
@@ -23086,7 +30713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="6:14" ht="17.399999999999999" customHeight="1">
+    <row r="71" spans="6:14" ht="17.45" customHeight="1">
       <c r="H71" t="s">
         <v>24</v>
       </c>
@@ -23102,7 +30729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="6:14" ht="17.399999999999999" customHeight="1">
+    <row r="75" spans="6:14" ht="17.45" customHeight="1">
       <c r="G75" s="13" t="s">
         <v>16</v>
       </c>
@@ -23112,7 +30739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="6:14" ht="16.2" customHeight="1">
+    <row r="79" spans="6:14" ht="16.25" customHeight="1">
       <c r="G79" t="s">
         <v>26</v>
       </c>
@@ -23132,7 +30759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="2:9" s="12" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="93" spans="2:9" s="12" customFormat="1" ht="17.45" customHeight="1">
       <c r="B93" s="11"/>
       <c r="C93"/>
       <c r="E93" s="12" t="s">
@@ -23149,17 +30776,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="6:14" ht="17.399999999999999" customHeight="1">
+    <row r="102" spans="6:14" ht="17.45" customHeight="1">
       <c r="J102" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="6:14" ht="17.399999999999999" customHeight="1">
+    <row r="104" spans="6:14" ht="17.45" customHeight="1">
       <c r="G104" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="6:14" ht="17.399999999999999" customHeight="1">
+    <row r="106" spans="6:14" ht="17.45" customHeight="1">
       <c r="F106" t="s">
         <v>13</v>
       </c>
@@ -23200,7 +30827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="2:7" s="12" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="131" spans="2:7" s="12" customFormat="1" ht="17.45" customHeight="1">
       <c r="B131" s="11"/>
       <c r="C131"/>
       <c r="E131" s="12" t="s">
@@ -23212,7 +30839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="10.199999999999999" customHeight="1"/>
+    <row r="134" spans="2:7" ht="10.25" customHeight="1"/>
     <row r="135" spans="2:7" ht="16.8" customHeight="1">
       <c r="F135" t="s">
         <v>35</v>
@@ -23233,7 +30860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="2:7" s="6" customFormat="1" ht="16.2" customHeight="1">
+    <row r="143" spans="2:7" s="6" customFormat="1" ht="16.25" customHeight="1">
       <c r="B143" s="7"/>
       <c r="D143" s="8" t="s">
         <v>38</v>
@@ -23247,6 +30874,319 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D60A44-A4CA-4D99-9555-5176D472C29F}">
+  <dimension ref="A1:J140"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.45" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.05" customHeight="1">
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B7" s="30"/>
+      <c r="D7" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="22" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" s="22" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" s="22" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" s="22" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B11" s="45"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.05" customHeight="1">
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.05" customHeight="1">
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="2:10" ht="16.05" customHeight="1">
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.05" customHeight="1">
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="2:10" ht="16.05" customHeight="1">
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="16.05" customHeight="1">
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="12" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B30" s="35"/>
+      <c r="C30" s="22"/>
+      <c r="E30" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" ht="16.05" customHeight="1">
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" ht="16.05" customHeight="1">
+      <c r="E42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" ht="16.05" customHeight="1">
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" ht="16.05" customHeight="1">
+      <c r="E44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" ht="16.05" customHeight="1">
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" ht="16.05" customHeight="1">
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="16.05" customHeight="1">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="51" spans="4:6" ht="16.05" customHeight="1">
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="16.05" customHeight="1">
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="16.05" customHeight="1">
+      <c r="D55" s="23"/>
+      <c r="E55" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="23"/>
+    </row>
+    <row r="57" spans="4:6" ht="16.05" customHeight="1">
+      <c r="E57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="16.05" customHeight="1">
+      <c r="F58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="16.05" customHeight="1">
+      <c r="D60" s="23"/>
+      <c r="E60" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F60" s="23"/>
+    </row>
+    <row r="62" spans="4:6" ht="16.05" customHeight="1">
+      <c r="E62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="16.05" customHeight="1">
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" ht="16.05" customHeight="1">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="67" spans="4:8" ht="16.05" customHeight="1">
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" ht="16.05" customHeight="1">
+      <c r="F68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" ht="16.05" customHeight="1">
+      <c r="E70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" ht="16.05" customHeight="1">
+      <c r="D80" s="23"/>
+      <c r="E80" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="82" spans="2:7" ht="16.05" customHeight="1">
+      <c r="E82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="16.05" customHeight="1">
+      <c r="F83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" s="12" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B86" s="35"/>
+      <c r="C86" s="22"/>
+      <c r="E86" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="16.05" customHeight="1">
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="16.05" customHeight="1">
+      <c r="F90" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="16.05" customHeight="1">
+      <c r="G91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" s="12" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B93" s="35"/>
+      <c r="C93" s="22"/>
+      <c r="E93" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="16.05" customHeight="1">
+      <c r="E95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="16.05" customHeight="1">
+      <c r="F96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" s="12" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B98" s="35"/>
+      <c r="C98" s="22"/>
+      <c r="E98" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="16.05" customHeight="1">
+      <c r="E100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="16.05" customHeight="1">
+      <c r="F102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" s="12" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B104" s="35"/>
+      <c r="C104" s="22"/>
+      <c r="E104" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="16.05" customHeight="1">
+      <c r="E111" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="16.05" customHeight="1">
+      <c r="F113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" s="6" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B115" s="41"/>
+      <c r="D115" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1" ht="16.05" customHeight="1">
+      <c r="B140" s="41"/>
+      <c r="D140" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008EA669-9892-4983-8339-6D8C60A35D66}">
   <dimension ref="A1:U158"/>
   <sheetViews>
@@ -23254,7 +31194,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
@@ -23695,19 +31635,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B963E13-58BB-4108-B888-103133C66C85}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.45" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>114</v>
       </c>
@@ -23796,19 +31736,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3175F1-FB4D-4C54-BFB0-C9A1185C8A4E}">
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.45" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>114</v>
       </c>

--- a/Document/100_DUYD画面仕様.xlsx
+++ b/Document/100_DUYD画面仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03D792-989B-4238-9653-FBE2244280B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F7F2C8-7B52-4C1E-9FDB-F128C809721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -30877,7 +30877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D60A44-A4CA-4D99-9555-5176D472C29F}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
@@ -31740,7 +31740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3175F1-FB4D-4C54-BFB0-C9A1185C8A4E}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>

--- a/Document/100_DUYD画面仕様.xlsx
+++ b/Document/100_DUYD画面仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー (2)\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F7F2C8-7B52-4C1E-9FDB-F128C809721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3354EEF3-5F6D-4A01-8221-25CDC5D26175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="1" r:id="rId1"/>
@@ -8646,8 +8646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1766889" y="2457450"/>
-          <a:ext cx="4333875" cy="1400175"/>
+          <a:off x="1767841" y="2438400"/>
+          <a:ext cx="4358640" cy="1386840"/>
           <a:chOff x="1766889" y="1657350"/>
           <a:chExt cx="4333875" cy="1400175"/>
         </a:xfrm>
@@ -9118,8 +9118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7934325" y="2457450"/>
-          <a:ext cx="4333875" cy="1400175"/>
+          <a:off x="7970520" y="2438400"/>
+          <a:ext cx="4358640" cy="1386840"/>
           <a:chOff x="1766889" y="1657350"/>
           <a:chExt cx="4333875" cy="1400175"/>
         </a:xfrm>
@@ -10720,8 +10720,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1943101" y="6262687"/>
-          <a:ext cx="4333875" cy="1400175"/>
+          <a:off x="1945006" y="6207442"/>
+          <a:ext cx="4358640" cy="1386840"/>
           <a:chOff x="1766889" y="1657350"/>
           <a:chExt cx="4333875" cy="1400175"/>
         </a:xfrm>
@@ -12189,8 +12189,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2266950" y="14258925"/>
-          <a:ext cx="4333875" cy="1400175"/>
+          <a:off x="2270760" y="14127480"/>
+          <a:ext cx="4358640" cy="1386840"/>
           <a:chOff x="1766889" y="1657350"/>
           <a:chExt cx="4333875" cy="1400175"/>
         </a:xfrm>
@@ -12853,8 +12853,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2100263" y="1771546"/>
-          <a:ext cx="3801294" cy="600179"/>
+          <a:off x="2103120" y="1760116"/>
+          <a:ext cx="3822249" cy="594464"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -13679,8 +13679,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8343081" y="1819171"/>
-          <a:ext cx="3801294" cy="600179"/>
+          <a:off x="8381181" y="1807741"/>
+          <a:ext cx="3823201" cy="594464"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -14773,8 +14773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1933575" y="21059775"/>
-          <a:ext cx="3801294" cy="600179"/>
+          <a:off x="1935480" y="20863560"/>
+          <a:ext cx="3822249" cy="594464"/>
           <a:chOff x="8767763" y="5857875"/>
           <a:chExt cx="3801294" cy="600179"/>
         </a:xfrm>
@@ -17304,8 +17304,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7086600" y="1643063"/>
-          <a:ext cx="3895725" cy="2598420"/>
+          <a:off x="7025640" y="1645920"/>
+          <a:ext cx="3848100" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -19851,8 +19851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6610350" y="9712643"/>
-          <a:ext cx="3893820" cy="2598420"/>
+          <a:off x="6553200" y="9715500"/>
+          <a:ext cx="3848100" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -22388,8 +22388,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2552700" y="19854863"/>
-          <a:ext cx="3895725" cy="2598420"/>
+          <a:off x="2545080" y="19857720"/>
+          <a:ext cx="3848100" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -23917,8 +23917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2646045" y="26865263"/>
-          <a:ext cx="3893820" cy="2598420"/>
+          <a:off x="2636520" y="26868120"/>
+          <a:ext cx="3848100" cy="2598420"/>
           <a:chOff x="2080260" y="1455420"/>
           <a:chExt cx="3848100" cy="2103120"/>
         </a:xfrm>
@@ -26083,8 +26083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2266950" y="3657600"/>
-          <a:ext cx="1833563" cy="1223010"/>
+          <a:off x="2270760" y="3627120"/>
+          <a:ext cx="1844040" cy="1211580"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -26338,8 +26338,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5654040" y="3680460"/>
-          <a:ext cx="1833563" cy="1223010"/>
+          <a:off x="5676900" y="3649980"/>
+          <a:ext cx="1844040" cy="1211580"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -27949,8 +27949,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5578793" y="2571750"/>
-          <a:ext cx="1833562" cy="1223010"/>
+          <a:off x="5600700" y="2552700"/>
+          <a:ext cx="1844040" cy="1211580"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -28204,8 +28204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2312670" y="2586990"/>
-          <a:ext cx="1833563" cy="1223010"/>
+          <a:off x="2316480" y="2567940"/>
+          <a:ext cx="1844040" cy="1211580"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -28459,8 +28459,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2327910" y="9395460"/>
-          <a:ext cx="1833563" cy="1223010"/>
+          <a:off x="2331720" y="9311640"/>
+          <a:ext cx="1844040" cy="1211580"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -28714,8 +28714,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5707380" y="9403080"/>
-          <a:ext cx="1833563" cy="1223010"/>
+          <a:off x="5730240" y="9319260"/>
+          <a:ext cx="1844040" cy="1211580"/>
           <a:chOff x="2270760" y="3627120"/>
           <a:chExt cx="1844040" cy="1211580"/>
         </a:xfrm>
@@ -30474,17 +30474,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.125" style="20"/>
+    <col min="1" max="3" width="2.09765625" style="20"/>
     <col min="4" max="4" width="11.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.9375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.1875" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="2.125" style="20"/>
+    <col min="5" max="5" width="8.09765625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.8984375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="2.09765625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="19" customFormat="1" ht="25.9">
+    <row r="1" spans="2:7" s="19" customFormat="1" ht="26.4">
       <c r="B1" s="18" t="s">
         <v>41</v>
       </c>
@@ -30584,11 +30584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF07837F-3729-4EA6-A844-0445594FBC74}">
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B41" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
@@ -30611,7 +30611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1">
+    <row r="5" spans="1:5" ht="14.4" customHeight="1">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -30637,7 +30637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16.25" customHeight="1">
+    <row r="29" spans="2:6" ht="16.2" customHeight="1">
       <c r="F29" t="s">
         <v>9</v>
       </c>
@@ -30647,7 +30647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="12" customFormat="1" ht="16.25" customHeight="1">
+    <row r="32" spans="2:6" s="12" customFormat="1" ht="16.2" customHeight="1">
       <c r="B32" s="11"/>
       <c r="C32"/>
       <c r="E32" s="12" t="s">
@@ -30659,7 +30659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="6:14" ht="16.25" customHeight="1">
+    <row r="36" spans="6:14" ht="16.2" customHeight="1">
       <c r="F36" t="s">
         <v>13</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="6:14" ht="16.25" customHeight="1">
+    <row r="42" spans="6:14" ht="16.2" customHeight="1">
       <c r="G42" t="s">
         <v>18</v>
       </c>
@@ -30713,7 +30713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="6:14" ht="17.45" customHeight="1">
+    <row r="71" spans="6:14" ht="17.399999999999999" customHeight="1">
       <c r="H71" t="s">
         <v>24</v>
       </c>
@@ -30729,7 +30729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="6:14" ht="17.45" customHeight="1">
+    <row r="75" spans="6:14" ht="17.399999999999999" customHeight="1">
       <c r="G75" s="13" t="s">
         <v>16</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="6:14" ht="16.25" customHeight="1">
+    <row r="79" spans="6:14" ht="16.2" customHeight="1">
       <c r="G79" t="s">
         <v>26</v>
       </c>
@@ -30759,7 +30759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="2:9" s="12" customFormat="1" ht="17.45" customHeight="1">
+    <row r="93" spans="2:9" s="12" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="B93" s="11"/>
       <c r="C93"/>
       <c r="E93" s="12" t="s">
@@ -30776,17 +30776,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="6:14" ht="17.45" customHeight="1">
+    <row r="102" spans="6:14" ht="17.399999999999999" customHeight="1">
       <c r="J102" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="6:14" ht="17.45" customHeight="1">
+    <row r="104" spans="6:14" ht="17.399999999999999" customHeight="1">
       <c r="G104" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="6:14" ht="17.45" customHeight="1">
+    <row r="106" spans="6:14" ht="17.399999999999999" customHeight="1">
       <c r="F106" t="s">
         <v>13</v>
       </c>
@@ -30827,7 +30827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="2:7" s="12" customFormat="1" ht="17.45" customHeight="1">
+    <row r="131" spans="2:7" s="12" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="B131" s="11"/>
       <c r="C131"/>
       <c r="E131" s="12" t="s">
@@ -30839,7 +30839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="2:7" ht="10.25" customHeight="1"/>
+    <row r="134" spans="2:7" ht="10.199999999999999" customHeight="1"/>
     <row r="135" spans="2:7" ht="16.8" customHeight="1">
       <c r="F135" t="s">
         <v>35</v>
@@ -30860,7 +30860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="2:7" s="6" customFormat="1" ht="16.25" customHeight="1">
+    <row r="143" spans="2:7" s="6" customFormat="1" ht="16.2" customHeight="1">
       <c r="B143" s="7"/>
       <c r="D143" s="8" t="s">
         <v>38</v>
@@ -30877,15 +30877,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D60A44-A4CA-4D99-9555-5176D472C29F}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.45" customHeight="1">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>114</v>
       </c>
@@ -31190,11 +31192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008EA669-9892-4983-8339-6D8C60A35D66}">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
@@ -31641,13 +31643,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.45" customHeight="1">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>114</v>
       </c>
@@ -31742,13 +31744,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.1875" defaultRowHeight="16.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.19921875" defaultRowHeight="16.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.45" customHeight="1">
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>114</v>
       </c>
